--- a/elements/csms_elements.xlsx
+++ b/elements/csms_elements.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="13140" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="csms首页" sheetId="1" r:id="rId1"/>
+    <sheet name="0--csms首页" sheetId="1" r:id="rId1"/>
+    <sheet name="1--招募管理" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="66">
   <si>
     <t>用户名输入框</t>
   </si>
@@ -56,6 +57,162 @@
   </si>
   <si>
     <t>(By.XPATH,'//*[@class="navigator-container"]/div/div/img')</t>
+  </si>
+  <si>
+    <t>进入工作台按钮</t>
+  </si>
+  <si>
+    <t>(By.XPATH,'//button[@class="el-button el-button--danger el-button--mini is-plain"]')</t>
+  </si>
+  <si>
+    <t>合作伙伴管理按钮</t>
+  </si>
+  <si>
+    <t>(By.XPATH,'//div[@class="content"]/div/ul[2]/li')</t>
+  </si>
+  <si>
+    <t>招募管理按钮</t>
+  </si>
+  <si>
+    <t>(By.XPATH,'//div[@class="el-menu--horizontal" and @x-placement="bottom-start"]/ul/ul[2]/li/li')</t>
+  </si>
+  <si>
+    <t>//div[@class="el-menu--horizontal" and @x-placement="bottom-start"]/ul/ul[2]/li/li</t>
+  </si>
+  <si>
+    <t>招募管理下的搜索框</t>
+  </si>
+  <si>
+    <t>(By.XPATH,'//input[@placeholder="请输入公告标题"]')</t>
+  </si>
+  <si>
+    <t>申请招募按钮</t>
+  </si>
+  <si>
+    <t>(By.XPATH,'//div[@class="tower-accurate-query-container"]/div/div[4]/button')</t>
+  </si>
+  <si>
+    <t>公告标题</t>
+  </si>
+  <si>
+    <t>公告内容框架1</t>
+  </si>
+  <si>
+    <t>(By.ID,'editorNode')</t>
+  </si>
+  <si>
+    <t>公告内容框架2</t>
+  </si>
+  <si>
+    <t>(By.ID,'ueditor_0')</t>
+  </si>
+  <si>
+    <t>公告内容</t>
+  </si>
+  <si>
+    <t>(By.XPATH,'//body[@class="view"]')</t>
+  </si>
+  <si>
+    <t>预计发布时间输入框</t>
+  </si>
+  <si>
+    <t>(By.XPATH,'//div[@class="tower-line-form"]/form/div[4]/div/div/input')</t>
+  </si>
+  <si>
+    <t>预计截至时间输入框</t>
+  </si>
+  <si>
+    <t>(By.XPATH,'//div[@class="tower-line-form"]/form/div[5]/div/div/input')</t>
+  </si>
+  <si>
+    <t>选择审批方式</t>
+  </si>
+  <si>
+    <t>(By.XPATH,'//input[@placeholder="请选择审批方式"]')</t>
+  </si>
+  <si>
+    <t>审批方式下的逐级审批</t>
+  </si>
+  <si>
+    <t>(By.XPATH,'//span[contains(text(),"逐级审批")]')</t>
+  </si>
+  <si>
+    <t>选择下一审批人</t>
+  </si>
+  <si>
+    <t>(By.XPATH,'//input[@placeholder="请选择下一环节处理人"]')</t>
+  </si>
+  <si>
+    <t>下一审批人下的一级审批</t>
+  </si>
+  <si>
+    <t>(By.XPATH,'//span[contains(text(),"一级审批")]')</t>
+  </si>
+  <si>
+    <t>申请发布按钮</t>
+  </si>
+  <si>
+    <t>(By.XPATH,'//div[@class="line center"]/button[2]')</t>
+  </si>
+  <si>
+    <t>点击发布后的确定按钮</t>
+  </si>
+  <si>
+    <t>(By.XPATH,'//div[@class="el-message-box__btns"]/button[2]')</t>
+  </si>
+  <si>
+    <t>发布招募后的检查点</t>
+  </si>
+  <si>
+    <t>(By.XPATH,'//*[@class="el-message__content"]')</t>
+  </si>
+  <si>
+    <t>合作伙伴管理（工作台下）</t>
+  </si>
+  <si>
+    <t>(By.XPATH,'//div[@class="block-card-container mb20"]/div[2]/div/div[6]/div/div/span[2]')</t>
+  </si>
+  <si>
+    <t>标题输入框（通用）</t>
+  </si>
+  <si>
+    <t>(By.XPATH,'//input[@placeholder="请输入标题"]')</t>
+  </si>
+  <si>
+    <t>查询按钮</t>
+  </si>
+  <si>
+    <t>(By.XPATH,'//div[@class="item w120"]/button')</t>
+  </si>
+  <si>
+    <t>要审批的数据</t>
+  </si>
+  <si>
+    <t>(By.XPATH,'//table[@class="el-table__body"]/tbody/tr/td[2]/div/span')</t>
+  </si>
+  <si>
+    <t>下一审批人</t>
+  </si>
+  <si>
+    <t>下一审批人》二级审批</t>
+  </si>
+  <si>
+    <t>(By.XPATH,'//span[contains(text(),"二级审批")]')</t>
+  </si>
+  <si>
+    <t>审批意见输入框</t>
+  </si>
+  <si>
+    <t>(By.XPATH,'//input[@placeholder="请输入处理意见"]')</t>
+  </si>
+  <si>
+    <t>通过按钮</t>
+  </si>
+  <si>
+    <t>通过后的确定按钮</t>
+  </si>
+  <si>
+    <t>确定后的检查点</t>
   </si>
 </sst>
 </file>
@@ -63,10 +220,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -74,21 +231,6 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -107,52 +249,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -163,9 +259,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -186,6 +282,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -214,8 +339,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,6 +387,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -242,7 +435,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -254,37 +531,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -296,55 +555,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -357,60 +568,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,41 +581,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -480,20 +607,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -521,16 +652,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -539,133 +696,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -991,16 +1148,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="21.375" customWidth="1"/>
-    <col min="2" max="2" width="84.5" customWidth="1"/>
+    <col min="2" max="2" width="100.333333333333" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="13.8833333333333" customWidth="1"/>
   </cols>
@@ -1063,9 +1220,357 @@
         <v>13</v>
       </c>
     </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="26.3333333333333" customWidth="1"/>
+    <col min="2" max="2" width="110.583333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>